--- a/biology/Zoologie/Chelus/Chelus.xlsx
+++ b/biology/Zoologie/Chelus/Chelus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chelus est un genre de tortues d'eau douce de la famille des Chelidae. On les trouve en Amérique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La littérature scientifique hésite quelque peu sur le genre grammatical du mot Chelus. On peut lire Chelus fimbriatus et Chelus fimbriata, ou † Chelus columbianus et † Chelus columbiana, mais la forme correcte est le féminin[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La littérature scientifique hésite quelque peu sur le genre grammatical du mot Chelus. On peut lire Chelus fimbriatus et Chelus fimbriata, ou † Chelus columbianus et † Chelus columbiana, mais la forme correcte est le féminin,.
 </t>
         </is>
       </c>
@@ -544,13 +558,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Espèces actuelles
-Autrefois considéré comme monotypique, le genre Chelus se compose désormais de deux espèces, après que la seconde a été identifiée en 2020 à partir d'une analyse génétique[4] :
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Autrefois considéré comme monotypique, le genre Chelus se compose désormais de deux espèces, après que la seconde a été identifiée en 2020 à partir d'une analyse génétique :
 Chelus  fimbriata (Schneider, 1783) - communément appelé Matamata ;
-Chelus orinocensis Vargas-Ramírez, et al., 2020.
-Espèces fossiles
-† Chelus columbiana Wood 1976[3] (Miocène)
-† Chelus lewisi Wood 1976[3] (Miocène)</t>
+Chelus orinocensis Vargas-Ramírez, et al., 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chelus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chelus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>† Chelus columbiana Wood 1976 (Miocène)
+† Chelus lewisi Wood 1976 (Miocène)</t>
         </is>
       </c>
     </row>
